--- a/notebooks/assets/test/RFnh3_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test/RFnh3_st0_1_nomountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,31 +459,6 @@
           <t>1007_1014_2021</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>0324_0331_2021</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>0418_0425_2021</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>0717_0724_2021</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>0903_0910_2021</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>1007_1014_2021</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -492,33 +467,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.62</v>
+        <v>4.412</v>
       </c>
       <c r="C2" t="n">
-        <v>1.713</v>
+        <v>2.049</v>
       </c>
       <c r="D2" t="n">
-        <v>2.408</v>
+        <v>3.347</v>
       </c>
       <c r="E2" t="n">
-        <v>4.11</v>
+        <v>3.982</v>
       </c>
       <c r="F2" t="n">
-        <v>2.088</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.412</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.049</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.347</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.982</v>
-      </c>
-      <c r="K2" t="n">
         <v>2.022</v>
       </c>
     </row>
@@ -529,33 +489,18 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.442</v>
+        <v>40.09</v>
       </c>
       <c r="C3" t="n">
-        <v>5.454</v>
+        <v>8.901</v>
       </c>
       <c r="D3" t="n">
-        <v>11.557</v>
+        <v>22.166</v>
       </c>
       <c r="E3" t="n">
-        <v>34.018</v>
+        <v>31.868</v>
       </c>
       <c r="F3" t="n">
-        <v>12.004</v>
-      </c>
-      <c r="G3" t="n">
-        <v>40.09</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8.901</v>
-      </c>
-      <c r="I3" t="n">
-        <v>22.166</v>
-      </c>
-      <c r="J3" t="n">
-        <v>31.868</v>
-      </c>
-      <c r="K3" t="n">
         <v>10.409</v>
       </c>
     </row>
@@ -566,33 +511,18 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.837</v>
+        <v>0.865</v>
       </c>
       <c r="C4" t="n">
-        <v>0.877</v>
+        <v>0.745</v>
       </c>
       <c r="D4" t="n">
-        <v>0.92</v>
+        <v>0.829</v>
       </c>
       <c r="E4" t="n">
-        <v>0.787</v>
+        <v>0.843</v>
       </c>
       <c r="F4" t="n">
-        <v>0.705</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.865</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.745</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.843</v>
-      </c>
-      <c r="K4" t="n">
         <v>0.87</v>
       </c>
     </row>
@@ -603,33 +533,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.956</v>
+        <v>15.383</v>
       </c>
       <c r="C5" t="n">
-        <v>10.748</v>
+        <v>10.758</v>
       </c>
       <c r="D5" t="n">
-        <v>8.166</v>
+        <v>8.942</v>
       </c>
       <c r="E5" t="n">
-        <v>10.326</v>
+        <v>10.304</v>
       </c>
       <c r="F5" t="n">
-        <v>9.163</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15.383</v>
-      </c>
-      <c r="H5" t="n">
-        <v>10.758</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.942</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10.304</v>
-      </c>
-      <c r="K5" t="n">
         <v>9.497</v>
       </c>
     </row>
@@ -640,33 +555,18 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272.549</v>
+        <v>288.521</v>
       </c>
       <c r="C6" t="n">
-        <v>135.617</v>
+        <v>138.082</v>
       </c>
       <c r="D6" t="n">
-        <v>149.976</v>
+        <v>178.69</v>
       </c>
       <c r="E6" t="n">
-        <v>194.43</v>
+        <v>211.569</v>
       </c>
       <c r="F6" t="n">
-        <v>102.945</v>
-      </c>
-      <c r="G6" t="n">
-        <v>288.521</v>
-      </c>
-      <c r="H6" t="n">
-        <v>138.082</v>
-      </c>
-      <c r="I6" t="n">
-        <v>178.69</v>
-      </c>
-      <c r="J6" t="n">
-        <v>211.569</v>
-      </c>
-      <c r="K6" t="n">
         <v>110.82</v>
       </c>
     </row>
@@ -677,33 +577,18 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.462</v>
+        <v>-0.022</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.048</v>
+        <v>-2.954</v>
       </c>
       <c r="D7" t="n">
-        <v>0.013</v>
+        <v>-0.236</v>
       </c>
       <c r="E7" t="n">
-        <v>0.139</v>
+        <v>0.062</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.066</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-0.022</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-2.954</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.236</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="K7" t="n">
         <v>-0.547</v>
       </c>
     </row>

--- a/notebooks/assets/test/RFnh3_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test/RFnh3_st0_1_nomountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,128 +467,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.412</v>
+        <v>4.441</v>
       </c>
       <c r="C2" t="n">
-        <v>2.049</v>
+        <v>2.085</v>
       </c>
       <c r="D2" t="n">
-        <v>3.347</v>
+        <v>3.379</v>
       </c>
       <c r="E2" t="n">
-        <v>3.982</v>
+        <v>4.055</v>
       </c>
       <c r="F2" t="n">
-        <v>2.022</v>
+        <v>2.026</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MSE_sensor</t>
+          <t>RMSE_sensor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.09</v>
+        <v>6.03</v>
       </c>
       <c r="C3" t="n">
-        <v>8.901</v>
+        <v>2.955</v>
       </c>
       <c r="D3" t="n">
-        <v>22.166</v>
+        <v>4.43</v>
       </c>
       <c r="E3" t="n">
-        <v>31.868</v>
+        <v>5.436</v>
       </c>
       <c r="F3" t="n">
-        <v>10.409</v>
+        <v>3.024</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R2_sensor</t>
+          <t>MSE_sensor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.865</v>
+        <v>40.582</v>
       </c>
       <c r="C4" t="n">
-        <v>0.745</v>
+        <v>9.042</v>
       </c>
       <c r="D4" t="n">
-        <v>0.829</v>
+        <v>22.012</v>
       </c>
       <c r="E4" t="n">
-        <v>0.843</v>
+        <v>31.535</v>
       </c>
       <c r="F4" t="n">
-        <v>0.87</v>
+        <v>10.411</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAE_cams</t>
+          <t>R2_sensor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.383</v>
+        <v>0.861</v>
       </c>
       <c r="C5" t="n">
-        <v>10.758</v>
+        <v>0.739</v>
       </c>
       <c r="D5" t="n">
-        <v>8.942</v>
+        <v>0.828</v>
       </c>
       <c r="E5" t="n">
-        <v>10.304</v>
+        <v>0.841</v>
       </c>
       <c r="F5" t="n">
-        <v>9.497</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSE_cams</t>
+          <t>MAE_cams</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>288.521</v>
+        <v>15.383</v>
       </c>
       <c r="C6" t="n">
-        <v>138.082</v>
+        <v>10.758</v>
       </c>
       <c r="D6" t="n">
-        <v>178.69</v>
+        <v>8.942</v>
       </c>
       <c r="E6" t="n">
-        <v>211.569</v>
+        <v>10.304</v>
       </c>
       <c r="F6" t="n">
-        <v>110.82</v>
+        <v>9.497</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>RMSE_cams</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>16.887</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.705</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.639</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13.799</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.497</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MSE_cams</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>288.521</v>
+      </c>
+      <c r="C8" t="n">
+        <v>138.082</v>
+      </c>
+      <c r="D8" t="n">
+        <v>178.69</v>
+      </c>
+      <c r="E8" t="n">
+        <v>211.569</v>
+      </c>
+      <c r="F8" t="n">
+        <v>110.82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>R2_cams</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B9" t="n">
         <v>-0.022</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C9" t="n">
         <v>-2.954</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>-0.236</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>0.062</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>-0.547</v>
       </c>
     </row>

--- a/notebooks/assets/test/RFnh3_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test/RFnh3_st0_1_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.441</v>
+        <v>4.039</v>
       </c>
       <c r="C2" t="n">
-        <v>2.085</v>
+        <v>1.891</v>
       </c>
       <c r="D2" t="n">
-        <v>3.379</v>
+        <v>3.524</v>
       </c>
       <c r="E2" t="n">
-        <v>4.055</v>
+        <v>3.78</v>
       </c>
       <c r="F2" t="n">
-        <v>2.026</v>
+        <v>1.812</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.03</v>
+        <v>5.365</v>
       </c>
       <c r="C3" t="n">
-        <v>2.955</v>
+        <v>2.496</v>
       </c>
       <c r="D3" t="n">
-        <v>4.43</v>
+        <v>4.398</v>
       </c>
       <c r="E3" t="n">
-        <v>5.436</v>
+        <v>5.358</v>
       </c>
       <c r="F3" t="n">
-        <v>3.024</v>
+        <v>2.601</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.582</v>
+        <v>29.553</v>
       </c>
       <c r="C4" t="n">
-        <v>9.042</v>
+        <v>6.521</v>
       </c>
       <c r="D4" t="n">
-        <v>22.012</v>
+        <v>22.504</v>
       </c>
       <c r="E4" t="n">
-        <v>31.535</v>
+        <v>30.148</v>
       </c>
       <c r="F4" t="n">
-        <v>10.411</v>
+        <v>7.815</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.861</v>
+        <v>0.895</v>
       </c>
       <c r="C5" t="n">
-        <v>0.739</v>
+        <v>0.829</v>
       </c>
       <c r="D5" t="n">
-        <v>0.828</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.841</v>
+        <v>0.848</v>
       </c>
       <c r="F5" t="n">
-        <v>0.87</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="6">
